--- a/biology/Origine et évolution du vivant/Serpukhovien/Serpukhovien.xlsx
+++ b/biology/Origine et évolution du vivant/Serpukhovien/Serpukhovien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Serpukhovien est l'étage supérieur du Mississippien dans le Carbonifère (ère Paléozoïque). Il s'étend de 330,9 ± 0,2 à 323,2 ± 0,4 millions d'années, succédant à l'étage Viséen et précédant le Bashkirien du Pennsylvanien.
 Il était anciennement inclus dans le Silésien.
-Il doit son nom à la ville de Serpoukhov en Russie, mais le nom de Serpukhovien en français (Serpukhovian en anglais) a été retenu par la commission stratigraphique internationale et l'Union internationale des sciences géologiques (UISG)[2].
+Il doit son nom à la ville de Serpoukhov en Russie, mais le nom de Serpukhovien en français (Serpukhovian en anglais) a été retenu par la commission stratigraphique internationale et l'Union internationale des sciences géologiques (UISG).
 Il comprend les subdivisions suivantes :
 Alportien ;
 Chokiérien ;
@@ -518,7 +530,9 @@
           <t>Anciennes dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dinantien en Europe.</t>
         </is>
@@ -548,7 +562,9 @@
           <t>Stratigraphie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Serpukhovien inclut quatre biozones à conodontes :
 la zone de Gnathodus postbilineatus
